--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G3_Backlog_V4.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G3_Backlog_V4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H204M06\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E1A1BF-AF36-4E2B-A518-50490FE258AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{980874DB-5CEB-438A-85BF-2AA45EB61290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -354,6 +352,69 @@
   </si>
   <si>
     <t>Implementar unn funcion para validad la cedula ingresada</t>
+  </si>
+  <si>
+    <t>Reporte general de las historias clinicas</t>
+  </si>
+  <si>
+    <t>REQ009</t>
+  </si>
+  <si>
+    <t>REQ0010</t>
+  </si>
+  <si>
+    <t>Editar una historia clinica general</t>
+  </si>
+  <si>
+    <t>Editar nueva historia clinica general</t>
+  </si>
+  <si>
+    <t>Editar nueva historia clinica dermatologica</t>
+  </si>
+  <si>
+    <t>Editar una historia clinica dermatologica</t>
+  </si>
+  <si>
+    <t>Generar un reporte de todas las historias clinicas</t>
+  </si>
+  <si>
+    <t>Obtener un reporte detallados de todas las historias</t>
+  </si>
+  <si>
+    <t>Modifcar aquellos historias generales que requieran nuevo versionamiento</t>
+  </si>
+  <si>
+    <t>Modifcar aquellos historias dermatologicas que requieran nuevo versionamiento</t>
+  </si>
+  <si>
+    <t>REQ0011</t>
+  </si>
+  <si>
+    <t>Implementar un botono para poder editar historias clinicas generales</t>
+  </si>
+  <si>
+    <t>Implementar un botono para poder editar historias clinicas dermatologicas</t>
+  </si>
+  <si>
+    <t>Implementar un botono para poder obtener un reporte de todas las historias clinicas</t>
+  </si>
+  <si>
+    <t>REQ009-1</t>
+  </si>
+  <si>
+    <t>REQ009-2</t>
+  </si>
+  <si>
+    <t>REQ0010-1</t>
+  </si>
+  <si>
+    <t>REQ0011-2</t>
+  </si>
+  <si>
+    <t>REQ0010-2</t>
+  </si>
+  <si>
+    <t>REQ0011-1</t>
   </si>
 </sst>
 </file>
@@ -588,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +696,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,7 +863,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$C$29:$H$29</c:f>
+              <c:f>burdonchart!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -841,7 +903,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$C$30:$H$30</c:f>
+              <c:f>burdonchart!$C$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1138,7 +1200,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7029450" cy="4114800"/>
@@ -1173,7 +1235,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I27" headerRowCount="0" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I33" headerRowCount="0" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(D4:H4)</calculatedColumnFormula>
@@ -1392,7 +1454,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1609,10 +1671,82 @@
       <c r="E9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
@@ -2614,8 +2748,8 @@
   </sheetPr>
   <dimension ref="B1:J987"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2700,12 +2834,12 @@
       <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2718,12 +2852,12 @@
       <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2736,12 +2870,12 @@
       <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
@@ -2804,12 +2938,12 @@
       <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
@@ -2822,12 +2956,12 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="9" t="s">
         <v>41</v>
       </c>
@@ -2840,12 +2974,12 @@
       <c r="B14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
@@ -2899,12 +3033,12 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="9" t="s">
         <v>38</v>
       </c>
@@ -2917,12 +3051,12 @@
       <c r="B19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="9" t="s">
         <v>38</v>
       </c>
@@ -2935,12 +3069,12 @@
       <c r="B20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="9" t="s">
         <v>38</v>
       </c>
@@ -2994,12 +3128,12 @@
       <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="3" t="s">
         <v>53</v>
       </c>
@@ -3012,12 +3146,12 @@
       <c r="B25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="3" t="s">
         <v>53</v>
       </c>
@@ -3030,12 +3164,12 @@
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="3" t="s">
         <v>53</v>
       </c>
@@ -3094,12 +3228,12 @@
       <c r="B30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="9" t="s">
         <v>35</v>
       </c>
@@ -3112,12 +3246,12 @@
       <c r="B31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="9" t="s">
         <v>35</v>
       </c>
@@ -3130,12 +3264,12 @@
       <c r="B32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="9" t="s">
         <v>35</v>
       </c>
@@ -3196,12 +3330,12 @@
       <c r="B37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="3" t="s">
         <v>53</v>
       </c>
@@ -3214,12 +3348,12 @@
       <c r="B38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3232,12 +3366,12 @@
       <c r="B39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="3" t="s">
         <v>53</v>
       </c>
@@ -3301,12 +3435,12 @@
       <c r="B44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="3" t="s">
         <v>53</v>
       </c>
@@ -3319,12 +3453,12 @@
       <c r="B45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="3" t="s">
         <v>53</v>
       </c>
@@ -3337,12 +3471,12 @@
       <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
@@ -3406,12 +3540,12 @@
       <c r="B51" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="3" t="s">
         <v>38</v>
       </c>
@@ -3424,12 +3558,12 @@
       <c r="B52" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="3" t="s">
         <v>38</v>
       </c>
@@ -3442,12 +3576,12 @@
       <c r="B53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="3" t="s">
         <v>38</v>
       </c>
@@ -3459,46 +3593,293 @@
     <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="3"/>
+      <c r="C58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="32"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B65" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B66" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B67" s="32"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B70" s="3"/>
+      <c r="C70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B71" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B72" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="74" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="81" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="83" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="84" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="85" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="86" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="87" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="88" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B88" s="32"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="90" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="91" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="92" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="93" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="94" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="95" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="96" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -4391,7 +4772,16 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="33">
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C39:F39"/>
@@ -4431,7 +4821,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4457,7 +4847,7 @@
       <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -4482,13 +4872,13 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="36">
-        <v>2</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="C4" s="37">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35">
         <v>0</v>
       </c>
       <c r="E4" s="24">
@@ -4511,13 +4901,13 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="21"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="36">
-        <v>2</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="C5" s="37">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35">
         <v>0</v>
       </c>
       <c r="E5" s="24">
@@ -4533,20 +4923,20 @@
         <v>1</v>
       </c>
       <c r="I5" s="25">
-        <f t="shared" ref="I5:I27" si="0">SUM(D5:H5)</f>
+        <f t="shared" ref="I5:I33" si="0">SUM(D5:H5)</f>
         <v>2</v>
       </c>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="38">
         <v>3</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="35">
         <v>2</v>
       </c>
       <c r="E6" s="24">
@@ -4569,13 +4959,13 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="22"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>3</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="35">
         <v>1</v>
       </c>
       <c r="E7" s="24">
@@ -4598,13 +4988,13 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="36">
-        <v>2</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="C8" s="37">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
         <v>0</v>
       </c>
       <c r="E8" s="24">
@@ -4627,13 +5017,13 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="38">
         <v>3</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="35">
         <v>0</v>
       </c>
       <c r="E9" s="24">
@@ -4656,13 +5046,13 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="36">
-        <v>2</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35">
         <v>0</v>
       </c>
       <c r="E10" s="24">
@@ -4685,13 +5075,13 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="36">
-        <v>2</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="C11" s="37">
+        <v>2</v>
+      </c>
+      <c r="D11" s="35">
         <v>0</v>
       </c>
       <c r="E11" s="24">
@@ -4714,13 +5104,13 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="37">
-        <v>2</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C12" s="38">
+        <v>2</v>
+      </c>
+      <c r="D12" s="35">
         <v>0</v>
       </c>
       <c r="E12" s="24">
@@ -4743,13 +5133,13 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="36">
-        <v>2</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="35">
         <v>0</v>
       </c>
       <c r="E13" s="24">
@@ -4772,13 +5162,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="36">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="37">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35">
         <v>2</v>
       </c>
       <c r="E14" s="24">
@@ -4801,13 +5191,13 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="37">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="C15" s="38">
+        <v>2</v>
+      </c>
+      <c r="D15" s="35">
         <v>0</v>
       </c>
       <c r="E15" s="24">
@@ -4830,13 +5220,13 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="37">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="C16" s="38">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
         <v>0</v>
       </c>
       <c r="E16" s="24">
@@ -4859,13 +5249,13 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="37">
-        <v>2</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="C17" s="38">
+        <v>2</v>
+      </c>
+      <c r="D17" s="35">
         <v>0</v>
       </c>
       <c r="E17" s="24">
@@ -4888,13 +5278,13 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="37">
-        <v>2</v>
-      </c>
-      <c r="D18" s="34">
+      <c r="C18" s="38">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
         <v>2</v>
       </c>
       <c r="E18" s="24">
@@ -4916,13 +5306,13 @@
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="35">
         <v>0</v>
       </c>
       <c r="E19" s="24">
@@ -4943,13 +5333,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="38">
         <v>4</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="35">
         <v>0</v>
       </c>
       <c r="E20" s="24">
@@ -4970,13 +5360,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="38">
         <v>1</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="35">
         <v>0</v>
       </c>
       <c r="E21" s="24">
@@ -4997,13 +5387,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="38">
         <v>1</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="35">
         <v>1</v>
       </c>
       <c r="E22" s="24">
@@ -5024,13 +5414,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="38">
         <v>3</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="35">
         <v>0</v>
       </c>
       <c r="E23" s="24">
@@ -5051,13 +5441,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="37">
-        <v>2</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="C24" s="38">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
         <v>0</v>
       </c>
       <c r="E24" s="24">
@@ -5078,13 +5468,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="37">
-        <v>2</v>
-      </c>
-      <c r="D25" s="34">
+      <c r="C25" s="38">
+        <v>2</v>
+      </c>
+      <c r="D25" s="35">
         <v>0</v>
       </c>
       <c r="E25" s="24">
@@ -5105,13 +5495,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="37">
-        <v>2</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="C26" s="38">
+        <v>2</v>
+      </c>
+      <c r="D26" s="35">
         <v>0</v>
       </c>
       <c r="E26" s="24">
@@ -5132,13 +5522,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="37">
-        <v>2</v>
-      </c>
-      <c r="D27" s="34">
+      <c r="C27" s="38">
+        <v>2</v>
+      </c>
+      <c r="D27" s="35">
         <v>0</v>
       </c>
       <c r="E27" s="24">
@@ -5159,86 +5549,240 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B28" s="26"/>
+      <c r="B28" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="38">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="38">
+        <v>2</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B30" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="38">
+        <v>2</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="26">
+        <v>1</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0</v>
+      </c>
+      <c r="I30" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="38">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
+      <c r="I31" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2</v>
+      </c>
+      <c r="D32" s="35">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <v>1</v>
+      </c>
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B33" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C34" s="23">
         <f>SUM(C4:C27)</f>
         <v>51</v>
       </c>
-      <c r="D29" s="23">
-        <f>C29-SUM(D4:D27)</f>
+      <c r="D34" s="23">
+        <f>C34-SUM(D4:D27)</f>
         <v>43</v>
       </c>
-      <c r="E29" s="23">
-        <f>D29-SUM(E4:E27)</f>
+      <c r="E34" s="23">
+        <f>D34-SUM(E4:E27)</f>
         <v>35</v>
       </c>
-      <c r="F29" s="23">
-        <f t="shared" ref="F29:H29" si="1">E29-SUM(F4:F27)</f>
+      <c r="F34" s="23">
+        <f>E34-SUM(F4:F27)</f>
         <v>26</v>
       </c>
-      <c r="G29" s="23">
-        <f t="shared" si="1"/>
+      <c r="G34" s="23">
+        <f>F34-SUM(G4:G27)</f>
         <v>13</v>
       </c>
-      <c r="H29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B30" s="27" t="s">
+      <c r="H34" s="23">
+        <f>G34-SUM(H4:H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C35" s="23">
         <f>SUM(C4:C27)</f>
         <v>51</v>
       </c>
-      <c r="D30" s="23">
-        <f>C30-(SUM(C4:C27)/5)</f>
+      <c r="D35" s="23">
+        <f>C35-(SUM(C4:C27)/5)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="E30" s="23">
-        <f>D30-(SUM(D4:D27)/5)</f>
+      <c r="E35" s="23">
+        <f>D35-(SUM(D4:D27)/5)</f>
         <v>39.199999999999996</v>
       </c>
-      <c r="F30" s="23">
-        <f t="shared" ref="F30:H30" si="2">E30-(SUM(E4:E27)/5)</f>
+      <c r="F35" s="23">
+        <f>E35-(SUM(E4:E27)/5)</f>
         <v>37.599999999999994</v>
       </c>
-      <c r="G30" s="23">
-        <f t="shared" si="2"/>
+      <c r="G35" s="23">
+        <f>F35-(SUM(F4:F27)/5)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="H30" s="23">
-        <f t="shared" si="2"/>
+      <c r="H35" s="23">
+        <f>G35-(SUM(G4:G27)/5)</f>
         <v>33.199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="21"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
